--- a/504文档/招生/申请名单表-本科.xlsx
+++ b/504文档/招生/申请名单表-本科.xlsx
@@ -11,177 +11,147 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$D$16</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+  <si>
+    <t>李亚武</t>
+  </si>
+  <si>
+    <t>中南民大</t>
+  </si>
+  <si>
+    <t>鲁非雪</t>
+  </si>
+  <si>
+    <t>刘录</t>
+  </si>
+  <si>
+    <t>北京科技大学</t>
+  </si>
+  <si>
+    <t>杨飞虎</t>
+  </si>
+  <si>
+    <t>吉林大学</t>
+  </si>
+  <si>
+    <t>四川大学</t>
+  </si>
+  <si>
+    <t>张安</t>
+  </si>
+  <si>
+    <t>湖北大学</t>
+  </si>
   <si>
     <t>姓名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>学历</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>学校</t>
-  </si>
-  <si>
-    <t>专业</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>手机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>陆纯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>本科</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>北化工</t>
-  </si>
-  <si>
-    <t>高分子材料与工程</t>
-  </si>
-  <si>
-    <t>luchunjiangsu@163.com</t>
-  </si>
-  <si>
-    <t>李亚武</t>
-  </si>
-  <si>
-    <t>中南民大</t>
-  </si>
-  <si>
-    <t>材料化学</t>
-  </si>
-  <si>
-    <t>liyawu913@foxmail.com</t>
-  </si>
-  <si>
-    <t>13294178152/18271933065</t>
-  </si>
-  <si>
-    <t>鲁非雪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>安徽大学</t>
-  </si>
-  <si>
-    <t>lufeixue26@163.com</t>
-  </si>
-  <si>
-    <t>刘录</t>
-  </si>
-  <si>
-    <t>北京科技大学</t>
-  </si>
-  <si>
-    <t>ustblulu@163.com</t>
-  </si>
-  <si>
-    <t>杨飞虎</t>
-  </si>
-  <si>
-    <t>吉林大学</t>
-  </si>
-  <si>
-    <t>1759299720@qq.com</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>樊林峰</t>
-  </si>
-  <si>
-    <t>四川大学</t>
-  </si>
-  <si>
-    <t>1147906250@qq.com</t>
-  </si>
-  <si>
-    <t>张安</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁秀敏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京化工大学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁小蝶</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>湖北大学</t>
-  </si>
-  <si>
-    <t>ranffer@sina.com</t>
-  </si>
-  <si>
-    <t>王亚强</t>
-  </si>
-  <si>
-    <t>北京化工大学</t>
-  </si>
-  <si>
-    <t>材料学院高分子科学与工程</t>
-  </si>
-  <si>
-    <t>xiao.qaing@aliyun.com</t>
-  </si>
-  <si>
-    <t>梁秀敏</t>
-  </si>
-  <si>
-    <t>高分子材料与工程专业</t>
-  </si>
-  <si>
-    <t>18911938852@163.com</t>
-  </si>
-  <si>
-    <t>袁小蝶</t>
-  </si>
-  <si>
-    <t>材料学院高分子材料专业</t>
-  </si>
-  <si>
-    <t>2635261163@qq.com</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>李泽宝</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>中国科学技术大学</t>
-  </si>
-  <si>
-    <t>化学系</t>
-  </si>
-  <si>
-    <t>hbsjzlzb@qq.com</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>刘思达</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>南昌航空大学</t>
-  </si>
-  <si>
-    <t>1009010161@qq.com</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>罗恒</t>
-  </si>
-  <si>
-    <t>luoheng94@163.com</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>袁亚飞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>兰州理工大学校本部</t>
-  </si>
-  <si>
-    <t>1943169330@qq.com</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔春燕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛大学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>王洪玉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽宁大学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>投票</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,33 +189,52 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -255,18 +244,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -570,324 +568,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="27.77734375" customWidth="1"/>
-    <col min="5" max="5" width="26.77734375" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2">
-        <v>13699287273</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2">
-        <v>15156214484</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="2">
-        <v>13161887854</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="2">
-        <v>18844191589</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="2">
-        <v>15680021326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="2">
-        <v>18202724989</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="2">
-        <v>15801027057</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="2">
-        <v>18911938852</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="2">
-        <v>18202778868</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="2">
-        <v>15955150087</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="2">
-        <v>18770004360</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="2">
-        <v>18811409105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="2">
-        <v>18119495686</v>
-      </c>
+      <c r="D16" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -901,6 +792,7 @@
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -914,5 +806,6 @@
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>